--- a/database/industries/darou/deabid/product/quarterly.xlsx
+++ b/database/industries/darou/deabid/product/quarterly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C113D-20CE-4061-948C-20E3C5A8665D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="46">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -152,12 +151,18 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شربت </t>
+  </si>
+  <si>
+    <t>شربت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,17 +611,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -626,7 +633,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +645,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +657,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -660,7 +667,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -672,7 +679,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -684,7 +691,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -694,7 +701,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -716,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -726,7 +733,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -750,7 +757,7 @@
         <v>10174</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -774,7 +781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -798,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -822,9 +829,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>18</v>
@@ -846,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
@@ -870,7 +877,7 @@
         <v>2276219</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -894,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -918,7 +925,7 @@
         <v>9060438</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -942,7 +949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -966,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -988,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>4495527</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>15842358</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1044,7 +1051,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1054,7 +1061,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1064,7 +1071,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1096,7 +1103,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>14</v>
       </c>
@@ -1168,9 +1175,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>18</v>
@@ -1192,7 +1199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>19</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>2004226</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1247,7 @@
         <v>7316938</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>25</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>3552076</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>28</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>12916404</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1390,7 +1397,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1400,7 +1407,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1410,7 +1417,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>32</v>
       </c>
@@ -1432,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1442,7 +1449,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1466,7 +1473,7 @@
         <v>51558</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>14</v>
       </c>
@@ -1490,9 +1497,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>33</v>
@@ -1514,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1545,7 @@
         <v>1893337</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1569,7 @@
         <v>9151161</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>23</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -1610,7 +1617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>443210</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>28</v>
       </c>
@@ -1680,7 +1687,7 @@
         <v>11539266</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1690,7 +1697,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1700,7 +1707,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1710,7 +1717,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
         <v>34</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1742,7 +1749,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1773,7 @@
         <v>1194468</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>14</v>
       </c>
@@ -1790,9 +1797,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>37</v>
@@ -1814,7 +1821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>944672</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>1250682</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>23</v>
       </c>
@@ -1886,7 +1893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>30</v>
       </c>
@@ -1910,7 +1917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>25</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>26</v>
       </c>
@@ -1958,7 +1965,7 @@
         <v>124775</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1968,7 +1975,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1978,7 +1985,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1988,7 +1995,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>42</v>
       </c>
@@ -2010,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2020,7 +2027,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2051,7 @@
         <v>-41330</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>14</v>
       </c>
@@ -2068,9 +2075,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>33</v>
@@ -2092,7 +2099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
@@ -2116,7 +2123,7 @@
         <v>-886703</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>22</v>
       </c>
@@ -2140,7 +2147,7 @@
         <v>-2678521</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>23</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>30</v>
       </c>
@@ -2188,7 +2195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>25</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>26</v>
       </c>
@@ -2236,7 +2243,7 @@
         <v>-347823</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
         <v>28</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>-3954377</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2268,7 +2275,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2278,7 +2285,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2288,7 +2295,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
         <v>43</v>
       </c>
@@ -2310,7 +2317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2320,7 +2327,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2351,7 @@
         <v>10228</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>14</v>
       </c>
@@ -2368,7 +2375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>19</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>1006634</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>22</v>
       </c>
@@ -2440,7 +2447,7 @@
         <v>6472640</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>23</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>30</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>25</v>
       </c>
@@ -2512,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>26</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>95387</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
         <v>28</v>
       </c>

--- a/database/industries/darou/deabid/product/quarterly.xlsx
+++ b/database/industries/darou/deabid/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\darou\deabid\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A831F-05EC-44C6-BB36-E6EEE8C81635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2745" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,6 +37,18 @@
     <t>مقدار تولید</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -51,6 +64,9 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -144,6 +160,9 @@
     <t>ریال / ریال</t>
   </si>
   <si>
+    <t>/ ریال</t>
+  </si>
+  <si>
     <t>بطری/شیشه / ریال</t>
   </si>
   <si>
@@ -151,18 +170,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شربت </t>
-  </si>
-  <si>
-    <t>شربت</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,19 +624,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -632,8 +643,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,8 +660,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,8 +677,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -666,8 +692,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -678,8 +709,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,8 +726,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -700,8 +741,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -722,8 +768,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -732,316 +793,516 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
         <v>218413</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>10174</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>-180593</v>
+      </c>
+      <c r="F11" s="11">
+        <v>277705</v>
+      </c>
+      <c r="G11" s="11">
+        <v>322800</v>
+      </c>
+      <c r="H11" s="11">
+        <v>283206</v>
+      </c>
+      <c r="I11" s="11">
         <v>333627</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="9">
+        <v>190332</v>
+      </c>
+      <c r="G12" s="9">
+        <v>63021</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="11">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="11">
         <v>939633</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>2180243</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1823168</v>
+      </c>
+      <c r="G14" s="9">
+        <v>648758</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1137152</v>
+      </c>
+      <c r="I14" s="9">
         <v>2188853</v>
       </c>
-      <c r="F14" s="9">
+      <c r="J14" s="9">
         <v>3841978</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="11">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="11">
         <v>2081167</v>
       </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
         <v>1849765</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>1796287</v>
       </c>
-      <c r="I15" s="11">
+      <c r="M15" s="11">
         <v>2276219</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N15" s="11">
+        <v>2184601</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>2007780</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1528337</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2166599</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2018372</v>
+      </c>
+      <c r="I16" s="9">
         <v>2565245</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="11">
+        <v>17</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="11">
         <v>4754889</v>
       </c>
-      <c r="G17" s="11">
+      <c r="K17" s="11">
         <v>7516073</v>
       </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
         <v>7140779</v>
       </c>
-      <c r="I17" s="11">
+      <c r="M17" s="11">
         <v>9060438</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N17" s="11">
+        <v>9724392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
+        <v>5880485</v>
+      </c>
+      <c r="F18" s="9">
+        <v>7140179</v>
+      </c>
+      <c r="G18" s="9">
+        <v>7153489</v>
+      </c>
+      <c r="H18" s="9">
+        <v>5030801</v>
+      </c>
+      <c r="I18" s="9">
         <v>5337212</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>12</v>
+      <c r="E19" s="11">
+        <v>239352</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="11">
+        <v>17</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11">
         <v>4563921</v>
       </c>
-      <c r="H21" s="11">
+      <c r="L21" s="11">
         <v>3980766</v>
       </c>
-      <c r="I21" s="11">
+      <c r="M21" s="11">
         <v>4495527</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N21" s="11">
+        <v>5435642</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>10127267</v>
+      </c>
+      <c r="F22" s="13">
+        <v>10959721</v>
+      </c>
+      <c r="G22" s="13">
+        <v>10354667</v>
+      </c>
+      <c r="H22" s="13">
+        <v>8469531</v>
+      </c>
+      <c r="I22" s="13">
         <v>10424937</v>
       </c>
-      <c r="F22" s="13">
+      <c r="J22" s="13">
         <v>11617667</v>
       </c>
-      <c r="G22" s="13">
+      <c r="K22" s="13">
         <v>13929759</v>
       </c>
-      <c r="H22" s="13">
+      <c r="L22" s="13">
         <v>13136245</v>
       </c>
-      <c r="I22" s="13">
+      <c r="M22" s="13">
         <v>15842358</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N22" s="13">
+        <v>17344635</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1050,8 +1311,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1060,8 +1326,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1070,10 +1341,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1092,8 +1368,23 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1102,228 +1393,370 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="9">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="9">
         <v>298</v>
       </c>
-      <c r="H28" s="9">
+      <c r="L28" s="9">
         <v>27453</v>
       </c>
-      <c r="I28" s="9">
+      <c r="M28" s="9">
         <v>43164</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N28" s="9">
+        <v>225895</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>12</v>
+      <c r="E29" s="11">
+        <v>44994</v>
+      </c>
+      <c r="F29" s="11">
+        <v>38517</v>
+      </c>
+      <c r="G29" s="11">
+        <v>49524</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9">
+      <c r="E30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="9">
+        <v>62839</v>
+      </c>
+      <c r="I30" s="9">
         <v>890291</v>
       </c>
-      <c r="F30" s="9">
+      <c r="J30" s="9">
         <v>-833546</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
+        <v>1754078</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2188354</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1206325</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1274388</v>
+      </c>
+      <c r="I31" s="11">
         <v>1496152</v>
       </c>
-      <c r="F31" s="11">
+      <c r="J31" s="11">
         <v>5041271</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" s="9"/>
-      <c r="E32" s="9">
+      <c r="E32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="9">
+        <v>1492833</v>
+      </c>
+      <c r="I32" s="9">
         <v>3527502</v>
       </c>
-      <c r="F32" s="9">
+      <c r="J32" s="9">
         <v>669462</v>
       </c>
-      <c r="G32" s="9">
+      <c r="K32" s="9">
         <v>1904617</v>
       </c>
-      <c r="H32" s="9">
+      <c r="L32" s="9">
         <v>1921714</v>
       </c>
-      <c r="I32" s="9">
+      <c r="M32" s="9">
         <v>2004226</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N32" s="9">
+        <v>2080579</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>10178893</v>
+        <v>1562397</v>
       </c>
       <c r="F33" s="11">
-        <v>2816519</v>
+        <v>1611001</v>
       </c>
       <c r="G33" s="11">
-        <v>8128657</v>
-      </c>
-      <c r="H33" s="11">
-        <v>6425521</v>
-      </c>
-      <c r="I33" s="11">
-        <v>7316938</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1673064</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="H34" s="9">
+        <v>3493596</v>
+      </c>
+      <c r="I34" s="9">
+        <v>10178893</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2816519</v>
+      </c>
+      <c r="K34" s="9">
+        <v>8128657</v>
+      </c>
+      <c r="L34" s="9">
+        <v>6425521</v>
+      </c>
+      <c r="M34" s="9">
+        <v>7316938</v>
+      </c>
+      <c r="N34" s="9">
+        <v>9319998</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>12</v>
+      <c r="E35" s="11">
+        <v>6438071</v>
+      </c>
+      <c r="F35" s="11">
+        <v>5835750</v>
+      </c>
+      <c r="G35" s="11">
+        <v>3908645</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
         <v>0</v>
@@ -1331,83 +1764,184 @@
       <c r="F37" s="11">
         <v>0</v>
       </c>
-      <c r="G37" s="11" t="s">
-        <v>12</v>
+      <c r="G37" s="11">
+        <v>0</v>
       </c>
       <c r="H37" s="11">
         <v>0</v>
       </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9">
         <v>4336672</v>
       </c>
-      <c r="H38" s="9">
+      <c r="L40" s="9">
         <v>4406744</v>
       </c>
-      <c r="I38" s="9">
+      <c r="M40" s="9">
         <v>3552076</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15">
+      <c r="N40" s="9">
+        <v>7024890</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15">
+        <v>9799540</v>
+      </c>
+      <c r="F41" s="15">
+        <v>9673622</v>
+      </c>
+      <c r="G41" s="15">
+        <v>6837558</v>
+      </c>
+      <c r="H41" s="15">
+        <v>6323656</v>
+      </c>
+      <c r="I41" s="15">
         <v>16092838</v>
       </c>
-      <c r="F39" s="15">
+      <c r="J41" s="15">
         <v>7693706</v>
       </c>
-      <c r="G39" s="15">
+      <c r="K41" s="15">
         <v>14370244</v>
       </c>
-      <c r="H39" s="15">
+      <c r="L41" s="15">
         <v>12781432</v>
       </c>
-      <c r="I39" s="15">
+      <c r="M41" s="15">
         <v>12916404</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N41" s="15">
+        <v>18651362</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1416,30 +1950,28 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1448,181 +1980,265 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="K45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="9">
+      <c r="M45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="9">
         <v>181</v>
       </c>
-      <c r="H45" s="9">
+      <c r="L47" s="9">
         <v>16333</v>
       </c>
-      <c r="I45" s="9">
+      <c r="M47" s="9">
         <v>51558</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11">
-        <v>28447</v>
-      </c>
-      <c r="F46" s="11">
-        <v>4539</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>217280</v>
-      </c>
-      <c r="F47" s="9">
-        <v>384582</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N47" s="9">
+        <v>148571</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>1504000</v>
+        <v>27275</v>
       </c>
       <c r="F48" s="11">
-        <v>1467258</v>
+        <v>21921</v>
       </c>
       <c r="G48" s="11">
-        <v>1404538</v>
+        <v>28038</v>
       </c>
       <c r="H48" s="11">
-        <v>1555505</v>
+        <v>37998</v>
       </c>
       <c r="I48" s="11">
-        <v>1893337</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28447</v>
+      </c>
+      <c r="J48" s="11">
+        <v>4539</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>5153096</v>
+        <v>125837</v>
       </c>
       <c r="F49" s="9">
-        <v>5776403</v>
+        <v>207970</v>
       </c>
       <c r="G49" s="9">
-        <v>6379298</v>
+        <v>102821</v>
       </c>
       <c r="H49" s="9">
-        <v>6098717</v>
+        <v>116683</v>
       </c>
       <c r="I49" s="9">
-        <v>9151161</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>217280</v>
+      </c>
+      <c r="J49" s="9">
+        <v>384582</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="11">
+        <v>666004</v>
+      </c>
+      <c r="F50" s="11">
+        <v>734925</v>
+      </c>
+      <c r="G50" s="11">
+        <v>1093155</v>
+      </c>
+      <c r="H50" s="11">
+        <v>1032157</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1504000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1467258</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1404538</v>
+      </c>
+      <c r="L50" s="11">
+        <v>1555505</v>
+      </c>
+      <c r="M50" s="11">
+        <v>1893337</v>
+      </c>
+      <c r="N50" s="11">
+        <v>1883974</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>0</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3124787</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3846374</v>
+      </c>
+      <c r="G51" s="9">
+        <v>3319082</v>
+      </c>
+      <c r="H51" s="9">
+        <v>3293084</v>
+      </c>
+      <c r="I51" s="9">
+        <v>5153096</v>
+      </c>
+      <c r="J51" s="9">
+        <v>5776403</v>
+      </c>
+      <c r="K51" s="9">
+        <v>6379298</v>
+      </c>
+      <c r="L51" s="9">
+        <v>6098717</v>
+      </c>
+      <c r="M51" s="9">
+        <v>9151161</v>
+      </c>
+      <c r="N51" s="9">
+        <v>13001497</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
@@ -1631,83 +2247,186 @@
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="11">
+        <v>0</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11">
+        <v>0</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
+        <v>0</v>
+      </c>
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="9">
+        <v>424586</v>
+      </c>
+      <c r="L55" s="9">
+        <v>486142</v>
+      </c>
+      <c r="M55" s="9">
+        <v>443210</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1082790</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9">
-        <v>424586</v>
-      </c>
-      <c r="H53" s="9">
-        <v>486142</v>
-      </c>
-      <c r="I53" s="9">
-        <v>443210</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15">
+        <v>3943903</v>
+      </c>
+      <c r="F56" s="15">
+        <v>4811190</v>
+      </c>
+      <c r="G56" s="15">
+        <v>4543096</v>
+      </c>
+      <c r="H56" s="15">
+        <v>4479922</v>
+      </c>
+      <c r="I56" s="15">
         <v>6902823</v>
       </c>
-      <c r="F54" s="15">
+      <c r="J56" s="15">
         <v>7632782</v>
       </c>
-      <c r="G54" s="15">
+      <c r="K56" s="15">
         <v>8208603</v>
       </c>
-      <c r="H54" s="15">
+      <c r="L56" s="15">
         <v>8156697</v>
       </c>
-      <c r="I54" s="15">
+      <c r="M56" s="15">
         <v>11539266</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N56" s="15">
+        <v>16116832</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1716,30 +2435,28 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1748,244 +2465,416 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="K60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="9">
+      <c r="M60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="9">
         <v>607383</v>
       </c>
-      <c r="H60" s="9">
+      <c r="L62" s="9">
         <v>594944</v>
       </c>
-      <c r="I60" s="9">
+      <c r="M62" s="9">
         <v>1194468</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>31952</v>
-      </c>
-      <c r="F61" s="11">
-        <v>-5445</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9">
-        <v>145226</v>
-      </c>
-      <c r="F62" s="9">
-        <v>76287</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N62" s="9">
+        <v>657699</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>426364</v>
+        <v>606192</v>
       </c>
       <c r="F63" s="11">
-        <v>2191697</v>
+        <v>569125</v>
       </c>
       <c r="G63" s="11">
-        <v>737439</v>
+        <v>566150</v>
       </c>
       <c r="H63" s="11">
-        <v>809436</v>
+        <v>604688</v>
       </c>
       <c r="I63" s="11">
-        <v>944672</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31952</v>
+      </c>
+      <c r="J63" s="11">
+        <v>-5445</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
+        <v>71740</v>
+      </c>
+      <c r="F64" s="9">
+        <v>95035</v>
+      </c>
+      <c r="G64" s="9">
+        <v>85235</v>
+      </c>
+      <c r="H64" s="9">
+        <v>91560</v>
+      </c>
+      <c r="I64" s="9">
+        <v>145226</v>
+      </c>
+      <c r="J64" s="9">
+        <v>76287</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11">
+        <v>426271</v>
+      </c>
+      <c r="F65" s="11">
+        <v>456192</v>
+      </c>
+      <c r="G65" s="11">
+        <v>653385</v>
+      </c>
+      <c r="H65" s="11">
+        <v>691408</v>
+      </c>
+      <c r="I65" s="11">
+        <v>426364</v>
+      </c>
+      <c r="J65" s="11">
+        <v>2191697</v>
+      </c>
+      <c r="K65" s="11">
+        <v>737439</v>
+      </c>
+      <c r="L65" s="11">
+        <v>809436</v>
+      </c>
+      <c r="M65" s="11">
+        <v>944672</v>
+      </c>
+      <c r="N65" s="11">
+        <v>905505</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9">
+        <v>485361</v>
+      </c>
+      <c r="F66" s="9">
+        <v>659105</v>
+      </c>
+      <c r="G66" s="9">
+        <v>849164</v>
+      </c>
+      <c r="H66" s="9">
+        <v>942606</v>
+      </c>
+      <c r="I66" s="9">
         <v>506253</v>
       </c>
-      <c r="F64" s="9">
+      <c r="J66" s="9">
         <v>2050901</v>
       </c>
-      <c r="G64" s="9">
+      <c r="K66" s="9">
         <v>784791</v>
       </c>
-      <c r="H64" s="9">
+      <c r="L66" s="9">
         <v>949140</v>
       </c>
-      <c r="I64" s="9">
+      <c r="M66" s="9">
         <v>1250682</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N66" s="9">
+        <v>1395011</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="9">
+        <v>17</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="9">
         <v>97906</v>
       </c>
-      <c r="H68" s="9">
+      <c r="L70" s="9">
         <v>110318</v>
       </c>
-      <c r="I68" s="9">
+      <c r="M70" s="9">
         <v>124775</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N70" s="9">
+        <v>154136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1994,30 +2883,28 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2026,181 +2913,265 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="8" t="s">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
+      <c r="K74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="9">
+      <c r="M74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" s="9">
         <v>-190</v>
       </c>
-      <c r="H74" s="9">
+      <c r="L76" s="9">
         <v>-6225</v>
       </c>
-      <c r="I74" s="9">
+      <c r="M76" s="9">
         <v>-41330</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11">
-        <v>-30760</v>
-      </c>
-      <c r="F75" s="11">
-        <v>-4972</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9">
-        <v>-170311</v>
-      </c>
-      <c r="F76" s="9">
-        <v>-241459</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N76" s="9">
+        <v>-251217</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-886140</v>
+        <v>-27415</v>
       </c>
       <c r="F77" s="11">
-        <v>-739372</v>
+        <v>-23227</v>
       </c>
       <c r="G77" s="11">
-        <v>-712295</v>
+        <v>-34457</v>
       </c>
       <c r="H77" s="11">
-        <v>-763786</v>
+        <v>-32413</v>
       </c>
       <c r="I77" s="11">
-        <v>-886703</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-30760</v>
+      </c>
+      <c r="J77" s="11">
+        <v>-4972</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>-1862850</v>
+        <v>-86304</v>
       </c>
       <c r="F78" s="9">
-        <v>-2047298</v>
+        <v>-117469</v>
       </c>
       <c r="G78" s="9">
-        <v>-2438638</v>
+        <v>-64253</v>
       </c>
       <c r="H78" s="9">
-        <v>-2354160</v>
+        <v>-83410</v>
       </c>
       <c r="I78" s="9">
-        <v>-2678521</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-170311</v>
+      </c>
+      <c r="J78" s="9">
+        <v>-241459</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E79" s="11">
+        <v>-336817</v>
+      </c>
+      <c r="F79" s="11">
+        <v>-392524</v>
+      </c>
+      <c r="G79" s="11">
+        <v>-521514</v>
+      </c>
+      <c r="H79" s="11">
+        <v>-490960</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-886140</v>
+      </c>
+      <c r="J79" s="11">
+        <v>-739372</v>
+      </c>
+      <c r="K79" s="11">
+        <v>-712295</v>
+      </c>
+      <c r="L79" s="11">
+        <v>-763786</v>
+      </c>
+      <c r="M79" s="11">
+        <v>-886703</v>
+      </c>
+      <c r="N79" s="11">
+        <v>-915089</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>0</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1034862</v>
+      </c>
+      <c r="F80" s="9">
+        <v>-1396146</v>
+      </c>
+      <c r="G80" s="9">
+        <v>-1119778</v>
+      </c>
+      <c r="H80" s="9">
+        <v>-1144221</v>
+      </c>
+      <c r="I80" s="9">
+        <v>-1862850</v>
+      </c>
+      <c r="J80" s="9">
+        <v>-2047298</v>
+      </c>
+      <c r="K80" s="9">
+        <v>-2438638</v>
+      </c>
+      <c r="L80" s="9">
+        <v>-2354160</v>
+      </c>
+      <c r="M80" s="9">
+        <v>-2678521</v>
+      </c>
+      <c r="N80" s="9">
+        <v>-3945435</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
@@ -2209,83 +3180,186 @@
       <c r="F81" s="11">
         <v>0</v>
       </c>
-      <c r="G81" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="11">
+        <v>0</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C82" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="11">
+        <v>0</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="9">
+        <v>-298100</v>
+      </c>
+      <c r="L84" s="9">
+        <v>-384457</v>
+      </c>
+      <c r="M84" s="9">
+        <v>-347823</v>
+      </c>
+      <c r="N84" s="9">
+        <v>-591350</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="9">
-        <v>-298100</v>
-      </c>
-      <c r="H82" s="9">
-        <v>-384457</v>
-      </c>
-      <c r="I82" s="9">
-        <v>-347823</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15">
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15">
+        <v>-1485398</v>
+      </c>
+      <c r="F85" s="15">
+        <v>-1929366</v>
+      </c>
+      <c r="G85" s="15">
+        <v>-1740002</v>
+      </c>
+      <c r="H85" s="15">
+        <v>-1751004</v>
+      </c>
+      <c r="I85" s="15">
         <v>-2950061</v>
       </c>
-      <c r="F83" s="15">
+      <c r="J85" s="15">
         <v>-3033101</v>
       </c>
-      <c r="G83" s="15">
+      <c r="K85" s="15">
         <v>-3449223</v>
       </c>
-      <c r="H83" s="15">
+      <c r="L85" s="15">
         <v>-3508628</v>
       </c>
-      <c r="I83" s="15">
+      <c r="M85" s="15">
         <v>-3954377</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N85" s="15">
+        <v>-5703091</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2294,30 +3368,28 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2326,181 +3398,265 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="K89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="9">
+      <c r="M89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="9">
         <v>-9</v>
       </c>
-      <c r="H89" s="9">
+      <c r="L91" s="9">
         <v>10108</v>
       </c>
-      <c r="I89" s="9">
+      <c r="M91" s="9">
         <v>10228</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11">
-        <v>-2313</v>
-      </c>
-      <c r="F90" s="11">
-        <v>-433</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B91" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9">
-        <v>46969</v>
-      </c>
-      <c r="F91" s="9">
-        <v>143123</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N91" s="9">
+        <v>-102646</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>617860</v>
+        <v>-140</v>
       </c>
       <c r="F92" s="11">
-        <v>727886</v>
+        <v>-1306</v>
       </c>
       <c r="G92" s="11">
-        <v>692243</v>
+        <v>-6419</v>
       </c>
       <c r="H92" s="11">
-        <v>791719</v>
+        <v>5585</v>
       </c>
       <c r="I92" s="11">
-        <v>1006634</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2313</v>
+      </c>
+      <c r="J92" s="11">
+        <v>-433</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>3290245</v>
+        <v>39533</v>
       </c>
       <c r="F93" s="9">
-        <v>3729105</v>
+        <v>90501</v>
       </c>
       <c r="G93" s="9">
-        <v>3940660</v>
+        <v>38568</v>
       </c>
       <c r="H93" s="9">
-        <v>3744557</v>
+        <v>33273</v>
       </c>
       <c r="I93" s="9">
-        <v>6472640</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>46969</v>
+      </c>
+      <c r="J93" s="9">
+        <v>143123</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E94" s="11">
+        <v>329187</v>
+      </c>
+      <c r="F94" s="11">
+        <v>342401</v>
+      </c>
+      <c r="G94" s="11">
+        <v>571641</v>
+      </c>
+      <c r="H94" s="11">
+        <v>541197</v>
+      </c>
+      <c r="I94" s="11">
+        <v>617860</v>
+      </c>
+      <c r="J94" s="11">
+        <v>727886</v>
+      </c>
+      <c r="K94" s="11">
+        <v>692243</v>
+      </c>
+      <c r="L94" s="11">
+        <v>791719</v>
+      </c>
+      <c r="M94" s="11">
+        <v>1006634</v>
+      </c>
+      <c r="N94" s="11">
+        <v>968885</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>0</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2089925</v>
+      </c>
+      <c r="F95" s="9">
+        <v>2450228</v>
+      </c>
+      <c r="G95" s="9">
+        <v>2199304</v>
+      </c>
+      <c r="H95" s="9">
+        <v>2148863</v>
+      </c>
+      <c r="I95" s="9">
+        <v>3290245</v>
+      </c>
+      <c r="J95" s="9">
+        <v>3729105</v>
+      </c>
+      <c r="K95" s="9">
+        <v>3940660</v>
+      </c>
+      <c r="L95" s="9">
+        <v>3744557</v>
+      </c>
+      <c r="M95" s="9">
+        <v>6472640</v>
+      </c>
+      <c r="N95" s="9">
+        <v>9056062</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
@@ -2509,60 +3665,183 @@
       <c r="F96" s="11">
         <v>0</v>
       </c>
-      <c r="G96" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C97" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0</v>
+      </c>
+      <c r="H97" s="9">
+        <v>0</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>0</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" s="11">
+        <v>0</v>
+      </c>
+      <c r="M98" s="11">
+        <v>0</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" s="9">
+        <v>126486</v>
+      </c>
+      <c r="L99" s="9">
+        <v>101685</v>
+      </c>
+      <c r="M99" s="9">
+        <v>95387</v>
+      </c>
+      <c r="N99" s="9">
+        <v>491440</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="9">
-        <v>126486</v>
-      </c>
-      <c r="H97" s="9">
-        <v>101685</v>
-      </c>
-      <c r="I97" s="9">
-        <v>95387</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15">
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15">
+        <v>2458505</v>
+      </c>
+      <c r="F100" s="15">
+        <v>2881824</v>
+      </c>
+      <c r="G100" s="15">
+        <v>2803094</v>
+      </c>
+      <c r="H100" s="15">
+        <v>2728918</v>
+      </c>
+      <c r="I100" s="15">
         <v>3952761</v>
       </c>
-      <c r="F98" s="15">
+      <c r="J100" s="15">
         <v>4599681</v>
       </c>
-      <c r="G98" s="15">
+      <c r="K100" s="15">
         <v>4759380</v>
       </c>
-      <c r="H98" s="15">
+      <c r="L100" s="15">
         <v>4648069</v>
       </c>
-      <c r="I98" s="15">
+      <c r="M100" s="15">
         <v>7584889</v>
+      </c>
+      <c r="N100" s="15">
+        <v>10413741</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/deabid/product/quarterly.xlsx
+++ b/database/industries/darou/deabid/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A831F-05EC-44C6-BB36-E6EEE8C81635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19D6CD6-0F45-4B66-B4C9-68593E00900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="50">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -629,12 +629,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -649,7 +649,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -698,7 +698,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -747,7 +747,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -799,7 +799,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -822,23 +822,23 @@
       <c r="I10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
+      <c r="J10" s="9">
+        <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>218413</v>
       </c>
       <c r="L10" s="9">
-        <v>218413</v>
+        <v>10174</v>
       </c>
       <c r="M10" s="9">
-        <v>10174</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -847,20 +847,20 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>-180593</v>
+        <v>277705</v>
       </c>
       <c r="F11" s="11">
-        <v>277705</v>
+        <v>322800</v>
       </c>
       <c r="G11" s="11">
-        <v>322800</v>
+        <v>283206</v>
       </c>
       <c r="H11" s="11">
-        <v>283206</v>
-      </c>
-      <c r="I11" s="11">
         <v>333627</v>
       </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -885,20 +885,20 @@
         <v>20</v>
       </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
+      <c r="E12" s="9">
+        <v>190332</v>
       </c>
       <c r="F12" s="9">
-        <v>190332</v>
+        <v>63021</v>
       </c>
       <c r="G12" s="9">
-        <v>63021</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>0</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>17</v>
@@ -916,7 +916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -936,12 +936,12 @@
       <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="I13" s="11">
         <v>939633</v>
       </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="11" t="s">
         <v>17</v>
       </c>
@@ -955,7 +955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -964,23 +964,23 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>2180243</v>
+        <v>1823168</v>
       </c>
       <c r="F14" s="9">
-        <v>1823168</v>
+        <v>648758</v>
       </c>
       <c r="G14" s="9">
-        <v>648758</v>
+        <v>1137152</v>
       </c>
       <c r="H14" s="9">
-        <v>1137152</v>
+        <v>2188853</v>
       </c>
       <c r="I14" s="9">
-        <v>2188853</v>
-      </c>
-      <c r="J14" s="9">
         <v>3841978</v>
       </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K14" s="9" t="s">
         <v>17</v>
       </c>
@@ -994,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
@@ -1014,26 +1014,26 @@
       <c r="H15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>17</v>
+      <c r="I15" s="11">
+        <v>2081167</v>
       </c>
       <c r="J15" s="11">
-        <v>2081167</v>
+        <v>1849765</v>
       </c>
       <c r="K15" s="11">
-        <v>1849765</v>
+        <v>1796287</v>
       </c>
       <c r="L15" s="11">
-        <v>1796287</v>
+        <v>2276219</v>
       </c>
       <c r="M15" s="11">
-        <v>2276219</v>
+        <v>2184601</v>
       </c>
       <c r="N15" s="11">
-        <v>2184601</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1683693</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1042,20 +1042,20 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>2007780</v>
+        <v>1528337</v>
       </c>
       <c r="F16" s="9">
-        <v>1528337</v>
+        <v>2166599</v>
       </c>
       <c r="G16" s="9">
-        <v>2166599</v>
+        <v>2018372</v>
       </c>
       <c r="H16" s="9">
-        <v>2018372</v>
-      </c>
-      <c r="I16" s="9">
         <v>2565245</v>
       </c>
+      <c r="I16" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1092,26 +1092,26 @@
       <c r="H17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>17</v>
+      <c r="I17" s="11">
+        <v>4754889</v>
       </c>
       <c r="J17" s="11">
-        <v>4754889</v>
+        <v>7516073</v>
       </c>
       <c r="K17" s="11">
-        <v>7516073</v>
+        <v>7140779</v>
       </c>
       <c r="L17" s="11">
-        <v>7140779</v>
+        <v>9060438</v>
       </c>
       <c r="M17" s="11">
-        <v>9060438</v>
+        <v>9724392</v>
       </c>
       <c r="N17" s="11">
-        <v>9724392</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10503583</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1120,20 +1120,20 @@
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>5880485</v>
+        <v>7140179</v>
       </c>
       <c r="F18" s="9">
-        <v>7140179</v>
+        <v>7153489</v>
       </c>
       <c r="G18" s="9">
-        <v>7153489</v>
+        <v>5030801</v>
       </c>
       <c r="H18" s="9">
-        <v>5030801</v>
-      </c>
-      <c r="I18" s="9">
         <v>5337212</v>
       </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>28</v>
       </c>
@@ -1158,8 +1158,8 @@
         <v>29</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>239352</v>
+      <c r="E19" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>17</v>
@@ -1189,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
@@ -1207,14 +1207,14 @@
       <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>17</v>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
@@ -1249,60 +1249,60 @@
       <c r="I21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>17</v>
+      <c r="J21" s="11">
+        <v>4563921</v>
       </c>
       <c r="K21" s="11">
-        <v>4563921</v>
+        <v>3980766</v>
       </c>
       <c r="L21" s="11">
-        <v>3980766</v>
+        <v>4495527</v>
       </c>
       <c r="M21" s="11">
-        <v>4495527</v>
+        <v>5435642</v>
       </c>
       <c r="N21" s="11">
-        <v>5435642</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5711495</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>10127267</v>
+        <v>10959721</v>
       </c>
       <c r="F22" s="13">
-        <v>10959721</v>
+        <v>10354667</v>
       </c>
       <c r="G22" s="13">
-        <v>10354667</v>
+        <v>8469531</v>
       </c>
       <c r="H22" s="13">
-        <v>8469531</v>
+        <v>10424937</v>
       </c>
       <c r="I22" s="13">
-        <v>10424937</v>
+        <v>11617667</v>
       </c>
       <c r="J22" s="13">
-        <v>11617667</v>
+        <v>13929759</v>
       </c>
       <c r="K22" s="13">
-        <v>13929759</v>
+        <v>13136245</v>
       </c>
       <c r="L22" s="13">
-        <v>13136245</v>
+        <v>15842358</v>
       </c>
       <c r="M22" s="13">
-        <v>15842358</v>
+        <v>17344635</v>
       </c>
       <c r="N22" s="13">
-        <v>17344635</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17900366</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1317,7 +1317,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1347,7 +1347,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>34</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
@@ -1422,23 +1422,23 @@
       <c r="I28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>17</v>
+      <c r="J28" s="9">
+        <v>298</v>
       </c>
       <c r="K28" s="9">
-        <v>298</v>
+        <v>27453</v>
       </c>
       <c r="L28" s="9">
-        <v>27453</v>
+        <v>43164</v>
       </c>
       <c r="M28" s="9">
-        <v>43164</v>
+        <v>225885</v>
       </c>
       <c r="N28" s="9">
-        <v>225895</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>183995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>19</v>
       </c>
@@ -1447,14 +1447,14 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>44994</v>
+        <v>38517</v>
       </c>
       <c r="F29" s="11">
-        <v>38517</v>
-      </c>
-      <c r="G29" s="11">
         <v>49524</v>
       </c>
+      <c r="G29" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>19</v>
       </c>
@@ -1491,18 +1491,18 @@
       <c r="F30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>17</v>
+      <c r="G30" s="9">
+        <v>62839</v>
       </c>
       <c r="H30" s="9">
-        <v>62839</v>
+        <v>890291</v>
       </c>
       <c r="I30" s="9">
-        <v>890291</v>
-      </c>
-      <c r="J30" s="9">
         <v>-833546</v>
       </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K30" s="9" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>22</v>
       </c>
@@ -1525,23 +1525,23 @@
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
-        <v>1754078</v>
+        <v>2188354</v>
       </c>
       <c r="F31" s="11">
-        <v>2188354</v>
+        <v>1206325</v>
       </c>
       <c r="G31" s="11">
-        <v>1206325</v>
+        <v>1274388</v>
       </c>
       <c r="H31" s="11">
-        <v>1274388</v>
+        <v>1496152</v>
       </c>
       <c r="I31" s="11">
-        <v>1496152</v>
-      </c>
-      <c r="J31" s="11">
         <v>5041271</v>
       </c>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K31" s="11" t="s">
         <v>17</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>24</v>
       </c>
@@ -1569,32 +1569,32 @@
       <c r="F32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>17</v>
+      <c r="G32" s="9">
+        <v>1492833</v>
       </c>
       <c r="H32" s="9">
-        <v>1492833</v>
+        <v>3527502</v>
       </c>
       <c r="I32" s="9">
-        <v>3527502</v>
+        <v>669462</v>
       </c>
       <c r="J32" s="9">
-        <v>669462</v>
+        <v>1904617</v>
       </c>
       <c r="K32" s="9">
-        <v>1904617</v>
+        <v>1921714</v>
       </c>
       <c r="L32" s="9">
-        <v>1921714</v>
+        <v>2004226</v>
       </c>
       <c r="M32" s="9">
-        <v>2004226</v>
+        <v>2080579</v>
       </c>
       <c r="N32" s="9">
-        <v>2080579</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1718105</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
@@ -1603,14 +1603,14 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>1562397</v>
+        <v>1611001</v>
       </c>
       <c r="F33" s="11">
-        <v>1611001</v>
-      </c>
-      <c r="G33" s="11">
         <v>1673064</v>
       </c>
+      <c r="G33" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" s="11" t="s">
         <v>17</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>27</v>
       </c>
@@ -1647,32 +1647,32 @@
       <c r="F34" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>17</v>
+      <c r="G34" s="9">
+        <v>3493596</v>
       </c>
       <c r="H34" s="9">
-        <v>3493596</v>
+        <v>10178893</v>
       </c>
       <c r="I34" s="9">
-        <v>10178893</v>
+        <v>2816519</v>
       </c>
       <c r="J34" s="9">
-        <v>2816519</v>
+        <v>8128657</v>
       </c>
       <c r="K34" s="9">
-        <v>8128657</v>
+        <v>6425521</v>
       </c>
       <c r="L34" s="9">
-        <v>6425521</v>
+        <v>7316938</v>
       </c>
       <c r="M34" s="9">
-        <v>7316938</v>
+        <v>9319998</v>
       </c>
       <c r="N34" s="9">
-        <v>9319998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8068170</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>27</v>
       </c>
@@ -1681,14 +1681,14 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>6438071</v>
+        <v>5835750</v>
       </c>
       <c r="F35" s="11">
-        <v>5835750</v>
-      </c>
-      <c r="G35" s="11">
         <v>3908645</v>
       </c>
+      <c r="G35" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" s="11" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -1725,8 +1725,8 @@
       <c r="F36" s="9">
         <v>0</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
+      <c r="G36" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>17</v>
@@ -1750,7 +1750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>35</v>
       </c>
@@ -1767,8 +1767,8 @@
       <c r="G37" s="11">
         <v>0</v>
       </c>
-      <c r="H37" s="11">
-        <v>0</v>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>17</v>
@@ -1789,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>35</v>
       </c>
@@ -1806,11 +1806,11 @@
       <c r="G38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="9">
-        <v>0</v>
+      <c r="H38" s="9">
+        <v>0</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>17</v>
@@ -1828,7 +1828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>30</v>
       </c>
@@ -1849,11 +1849,11 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-      <c r="J39" s="11">
-        <v>0</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>17</v>
+      <c r="J39" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
       </c>
       <c r="L39" s="11">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>31</v>
       </c>
@@ -1888,60 +1888,60 @@
       <c r="I40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J40" s="9" t="s">
-        <v>17</v>
+      <c r="J40" s="9">
+        <v>4336672</v>
       </c>
       <c r="K40" s="9">
-        <v>4336672</v>
+        <v>4406744</v>
       </c>
       <c r="L40" s="9">
-        <v>4406744</v>
+        <v>3552076</v>
       </c>
       <c r="M40" s="9">
-        <v>3552076</v>
+        <v>7024890</v>
       </c>
       <c r="N40" s="9">
-        <v>7024890</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4643053</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>9799540</v>
+        <v>9673622</v>
       </c>
       <c r="F41" s="15">
-        <v>9673622</v>
+        <v>6837558</v>
       </c>
       <c r="G41" s="15">
-        <v>6837558</v>
+        <v>6323656</v>
       </c>
       <c r="H41" s="15">
-        <v>6323656</v>
+        <v>16092838</v>
       </c>
       <c r="I41" s="15">
-        <v>16092838</v>
+        <v>7693706</v>
       </c>
       <c r="J41" s="15">
-        <v>7693706</v>
+        <v>14370244</v>
       </c>
       <c r="K41" s="15">
-        <v>14370244</v>
+        <v>12781432</v>
       </c>
       <c r="L41" s="15">
-        <v>12781432</v>
+        <v>12916404</v>
       </c>
       <c r="M41" s="15">
-        <v>12916404</v>
+        <v>18651352</v>
       </c>
       <c r="N41" s="15">
-        <v>18651362</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14613323</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1956,7 +1956,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1971,7 +1971,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1986,7 +1986,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>37</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2038,7 +2038,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>15</v>
       </c>
@@ -2061,23 +2061,23 @@
       <c r="I47" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>17</v>
+      <c r="J47" s="9">
+        <v>181</v>
       </c>
       <c r="K47" s="9">
-        <v>181</v>
+        <v>16333</v>
       </c>
       <c r="L47" s="9">
-        <v>16333</v>
+        <v>51558</v>
       </c>
       <c r="M47" s="9">
-        <v>51558</v>
+        <v>148571</v>
       </c>
       <c r="N47" s="9">
-        <v>148571</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>92822</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>19</v>
       </c>
@@ -2086,23 +2086,23 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>27275</v>
+        <v>21921</v>
       </c>
       <c r="F48" s="11">
-        <v>21921</v>
+        <v>28038</v>
       </c>
       <c r="G48" s="11">
-        <v>28038</v>
+        <v>37998</v>
       </c>
       <c r="H48" s="11">
-        <v>37998</v>
+        <v>28447</v>
       </c>
       <c r="I48" s="11">
-        <v>28447</v>
-      </c>
-      <c r="J48" s="11">
         <v>4539</v>
       </c>
+      <c r="J48" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K48" s="11" t="s">
         <v>17</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>22</v>
       </c>
@@ -2125,23 +2125,23 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>125837</v>
+        <v>207970</v>
       </c>
       <c r="F49" s="9">
-        <v>207970</v>
+        <v>102821</v>
       </c>
       <c r="G49" s="9">
-        <v>102821</v>
+        <v>116683</v>
       </c>
       <c r="H49" s="9">
-        <v>116683</v>
+        <v>217280</v>
       </c>
       <c r="I49" s="9">
-        <v>217280</v>
-      </c>
-      <c r="J49" s="9">
         <v>384582</v>
       </c>
+      <c r="J49" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K49" s="9" t="s">
         <v>17</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>24</v>
       </c>
@@ -2164,37 +2164,37 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>666004</v>
+        <v>734925</v>
       </c>
       <c r="F50" s="11">
-        <v>734925</v>
+        <v>1093155</v>
       </c>
       <c r="G50" s="11">
-        <v>1093155</v>
+        <v>1032157</v>
       </c>
       <c r="H50" s="11">
-        <v>1032157</v>
+        <v>1504000</v>
       </c>
       <c r="I50" s="11">
-        <v>1504000</v>
+        <v>1467258</v>
       </c>
       <c r="J50" s="11">
-        <v>1467258</v>
+        <v>1404538</v>
       </c>
       <c r="K50" s="11">
-        <v>1404538</v>
+        <v>1555505</v>
       </c>
       <c r="L50" s="11">
-        <v>1555505</v>
+        <v>1893337</v>
       </c>
       <c r="M50" s="11">
-        <v>1893337</v>
+        <v>1883974</v>
       </c>
       <c r="N50" s="11">
-        <v>1883974</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1840522</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>27</v>
       </c>
@@ -2203,37 +2203,37 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>3124787</v>
+        <v>3846374</v>
       </c>
       <c r="F51" s="9">
-        <v>3846374</v>
+        <v>3319082</v>
       </c>
       <c r="G51" s="9">
-        <v>3319082</v>
+        <v>3293084</v>
       </c>
       <c r="H51" s="9">
-        <v>3293084</v>
+        <v>5153096</v>
       </c>
       <c r="I51" s="9">
-        <v>5153096</v>
+        <v>5776403</v>
       </c>
       <c r="J51" s="9">
-        <v>5776403</v>
+        <v>6379298</v>
       </c>
       <c r="K51" s="9">
-        <v>6379298</v>
+        <v>6098717</v>
       </c>
       <c r="L51" s="9">
-        <v>6098717</v>
+        <v>9151161</v>
       </c>
       <c r="M51" s="9">
-        <v>9151161</v>
+        <v>13001497</v>
       </c>
       <c r="N51" s="9">
-        <v>13001497</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12504790</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>28</v>
       </c>
@@ -2247,8 +2247,8 @@
       <c r="F52" s="11">
         <v>0</v>
       </c>
-      <c r="G52" s="11">
-        <v>0</v>
+      <c r="G52" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>17</v>
@@ -2272,7 +2272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>35</v>
       </c>
@@ -2292,8 +2292,8 @@
       <c r="H53" s="9">
         <v>0</v>
       </c>
-      <c r="I53" s="9">
-        <v>0</v>
+      <c r="I53" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>17</v>
@@ -2311,7 +2311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>30</v>
       </c>
@@ -2334,11 +2334,11 @@
       <c r="I54" s="11">
         <v>0</v>
       </c>
-      <c r="J54" s="11">
-        <v>0</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>17</v>
+      <c r="J54" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
       </c>
       <c r="L54" s="11">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>31</v>
       </c>
@@ -2373,60 +2373,60 @@
       <c r="I55" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>17</v>
+      <c r="J55" s="9">
+        <v>424586</v>
       </c>
       <c r="K55" s="9">
-        <v>424586</v>
+        <v>486142</v>
       </c>
       <c r="L55" s="9">
-        <v>486142</v>
+        <v>443210</v>
       </c>
       <c r="M55" s="9">
-        <v>443210</v>
+        <v>1082790</v>
       </c>
       <c r="N55" s="9">
-        <v>1082790</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>785196</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>3943903</v>
+        <v>4811190</v>
       </c>
       <c r="F56" s="15">
-        <v>4811190</v>
+        <v>4543096</v>
       </c>
       <c r="G56" s="15">
-        <v>4543096</v>
+        <v>4479922</v>
       </c>
       <c r="H56" s="15">
-        <v>4479922</v>
+        <v>6902823</v>
       </c>
       <c r="I56" s="15">
-        <v>6902823</v>
+        <v>7632782</v>
       </c>
       <c r="J56" s="15">
-        <v>7632782</v>
+        <v>8208603</v>
       </c>
       <c r="K56" s="15">
-        <v>8208603</v>
+        <v>8156697</v>
       </c>
       <c r="L56" s="15">
-        <v>8156697</v>
+        <v>11539266</v>
       </c>
       <c r="M56" s="15">
-        <v>11539266</v>
+        <v>16116832</v>
       </c>
       <c r="N56" s="15">
-        <v>16116832</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15223330</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2441,7 +2441,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2456,7 +2456,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2471,7 +2471,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>39</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2523,7 +2523,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>15</v>
       </c>
@@ -2546,23 +2546,23 @@
       <c r="I62" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="9" t="s">
-        <v>17</v>
+      <c r="J62" s="9">
+        <v>607383</v>
       </c>
       <c r="K62" s="9">
-        <v>607383</v>
+        <v>594944</v>
       </c>
       <c r="L62" s="9">
-        <v>594944</v>
+        <v>1194468</v>
       </c>
       <c r="M62" s="9">
-        <v>1194468</v>
+        <v>657728</v>
       </c>
       <c r="N62" s="9">
-        <v>657699</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>504481</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>19</v>
       </c>
@@ -2571,23 +2571,23 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>606192</v>
+        <v>569125</v>
       </c>
       <c r="F63" s="11">
-        <v>569125</v>
+        <v>566150</v>
       </c>
       <c r="G63" s="11">
-        <v>566150</v>
+        <v>604688</v>
       </c>
       <c r="H63" s="11">
-        <v>604688</v>
+        <v>31952</v>
       </c>
       <c r="I63" s="11">
-        <v>31952</v>
-      </c>
-      <c r="J63" s="11">
         <v>-5445</v>
       </c>
+      <c r="J63" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K63" s="11" t="s">
         <v>17</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>22</v>
       </c>
@@ -2610,23 +2610,23 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>71740</v>
+        <v>95035</v>
       </c>
       <c r="F64" s="9">
-        <v>95035</v>
+        <v>85235</v>
       </c>
       <c r="G64" s="9">
-        <v>85235</v>
+        <v>91560</v>
       </c>
       <c r="H64" s="9">
-        <v>91560</v>
+        <v>145226</v>
       </c>
       <c r="I64" s="9">
-        <v>145226</v>
-      </c>
-      <c r="J64" s="9">
         <v>76287</v>
       </c>
+      <c r="J64" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K64" s="9" t="s">
         <v>17</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>24</v>
       </c>
@@ -2649,37 +2649,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>426271</v>
+        <v>456192</v>
       </c>
       <c r="F65" s="11">
-        <v>456192</v>
+        <v>653385</v>
       </c>
       <c r="G65" s="11">
-        <v>653385</v>
+        <v>691408</v>
       </c>
       <c r="H65" s="11">
-        <v>691408</v>
+        <v>426364</v>
       </c>
       <c r="I65" s="11">
-        <v>426364</v>
+        <v>2191697</v>
       </c>
       <c r="J65" s="11">
-        <v>2191697</v>
+        <v>737439</v>
       </c>
       <c r="K65" s="11">
-        <v>737439</v>
+        <v>809436</v>
       </c>
       <c r="L65" s="11">
-        <v>809436</v>
+        <v>944672</v>
       </c>
       <c r="M65" s="11">
-        <v>944672</v>
+        <v>905505</v>
       </c>
       <c r="N65" s="11">
-        <v>905505</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1071251</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>27</v>
       </c>
@@ -2688,37 +2688,37 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>485361</v>
+        <v>659105</v>
       </c>
       <c r="F66" s="9">
-        <v>659105</v>
+        <v>849164</v>
       </c>
       <c r="G66" s="9">
-        <v>849164</v>
+        <v>942606</v>
       </c>
       <c r="H66" s="9">
-        <v>942606</v>
+        <v>506253</v>
       </c>
       <c r="I66" s="9">
-        <v>506253</v>
+        <v>2050901</v>
       </c>
       <c r="J66" s="9">
-        <v>2050901</v>
+        <v>784791</v>
       </c>
       <c r="K66" s="9">
-        <v>784791</v>
+        <v>949140</v>
       </c>
       <c r="L66" s="9">
-        <v>949140</v>
+        <v>1250682</v>
       </c>
       <c r="M66" s="9">
-        <v>1250682</v>
+        <v>1395011</v>
       </c>
       <c r="N66" s="9">
-        <v>1395011</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1549892</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>28</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>35</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>30</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>31</v>
       </c>
@@ -2858,23 +2858,23 @@
       <c r="I70" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="9" t="s">
-        <v>17</v>
+      <c r="J70" s="9">
+        <v>97906</v>
       </c>
       <c r="K70" s="9">
-        <v>97906</v>
+        <v>110318</v>
       </c>
       <c r="L70" s="9">
-        <v>110318</v>
+        <v>124775</v>
       </c>
       <c r="M70" s="9">
-        <v>124775</v>
+        <v>154136</v>
       </c>
       <c r="N70" s="9">
-        <v>154136</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169112</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2889,7 +2889,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2904,7 +2904,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2919,7 +2919,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>48</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2971,7 +2971,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>15</v>
       </c>
@@ -2994,23 +2994,23 @@
       <c r="I76" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="9" t="s">
-        <v>17</v>
+      <c r="J76" s="9">
+        <v>-190</v>
       </c>
       <c r="K76" s="9">
-        <v>-190</v>
+        <v>-6225</v>
       </c>
       <c r="L76" s="9">
-        <v>-6225</v>
+        <v>-41330</v>
       </c>
       <c r="M76" s="9">
-        <v>-41330</v>
+        <v>-251217</v>
       </c>
       <c r="N76" s="9">
-        <v>-251217</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-53794</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>19</v>
       </c>
@@ -3019,23 +3019,23 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-27415</v>
+        <v>-23227</v>
       </c>
       <c r="F77" s="11">
-        <v>-23227</v>
+        <v>-34457</v>
       </c>
       <c r="G77" s="11">
-        <v>-34457</v>
+        <v>-32413</v>
       </c>
       <c r="H77" s="11">
-        <v>-32413</v>
+        <v>-30760</v>
       </c>
       <c r="I77" s="11">
-        <v>-30760</v>
-      </c>
-      <c r="J77" s="11">
         <v>-4972</v>
       </c>
+      <c r="J77" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K77" s="11" t="s">
         <v>17</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>22</v>
       </c>
@@ -3058,23 +3058,23 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>-86304</v>
+        <v>-117469</v>
       </c>
       <c r="F78" s="9">
-        <v>-117469</v>
+        <v>-64253</v>
       </c>
       <c r="G78" s="9">
-        <v>-64253</v>
+        <v>-83410</v>
       </c>
       <c r="H78" s="9">
-        <v>-83410</v>
+        <v>-170311</v>
       </c>
       <c r="I78" s="9">
-        <v>-170311</v>
-      </c>
-      <c r="J78" s="9">
         <v>-241459</v>
       </c>
+      <c r="J78" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K78" s="9" t="s">
         <v>17</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>24</v>
       </c>
@@ -3097,37 +3097,37 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>-336817</v>
+        <v>-392524</v>
       </c>
       <c r="F79" s="11">
-        <v>-392524</v>
+        <v>-521514</v>
       </c>
       <c r="G79" s="11">
-        <v>-521514</v>
+        <v>-490960</v>
       </c>
       <c r="H79" s="11">
-        <v>-490960</v>
+        <v>-886140</v>
       </c>
       <c r="I79" s="11">
-        <v>-886140</v>
+        <v>-739372</v>
       </c>
       <c r="J79" s="11">
-        <v>-739372</v>
+        <v>-712295</v>
       </c>
       <c r="K79" s="11">
-        <v>-712295</v>
+        <v>-763786</v>
       </c>
       <c r="L79" s="11">
-        <v>-763786</v>
+        <v>-886703</v>
       </c>
       <c r="M79" s="11">
-        <v>-886703</v>
+        <v>-915089</v>
       </c>
       <c r="N79" s="11">
-        <v>-915089</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-893850</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>27</v>
       </c>
@@ -3136,37 +3136,37 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>-1034862</v>
+        <v>-1396146</v>
       </c>
       <c r="F80" s="9">
-        <v>-1396146</v>
+        <v>-1119778</v>
       </c>
       <c r="G80" s="9">
-        <v>-1119778</v>
+        <v>-1144221</v>
       </c>
       <c r="H80" s="9">
-        <v>-1144221</v>
+        <v>-1862850</v>
       </c>
       <c r="I80" s="9">
-        <v>-1862850</v>
+        <v>-2047298</v>
       </c>
       <c r="J80" s="9">
-        <v>-2047298</v>
+        <v>-2438638</v>
       </c>
       <c r="K80" s="9">
-        <v>-2438638</v>
+        <v>-2354160</v>
       </c>
       <c r="L80" s="9">
-        <v>-2354160</v>
+        <v>-2678521</v>
       </c>
       <c r="M80" s="9">
-        <v>-2678521</v>
+        <v>-3945435</v>
       </c>
       <c r="N80" s="9">
-        <v>-3945435</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4009205</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>28</v>
       </c>
@@ -3180,8 +3180,8 @@
       <c r="F81" s="11">
         <v>0</v>
       </c>
-      <c r="G81" s="11">
-        <v>0</v>
+      <c r="G81" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>17</v>
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>35</v>
       </c>
@@ -3225,8 +3225,8 @@
       <c r="H82" s="9">
         <v>0</v>
       </c>
-      <c r="I82" s="9">
-        <v>0</v>
+      <c r="I82" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>17</v>
@@ -3244,7 +3244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>30</v>
       </c>
@@ -3267,11 +3267,11 @@
       <c r="I83" s="11">
         <v>0</v>
       </c>
-      <c r="J83" s="11">
-        <v>0</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>17</v>
+      <c r="J83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
       </c>
       <c r="L83" s="11">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>31</v>
       </c>
@@ -3306,60 +3306,60 @@
       <c r="I84" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="9" t="s">
-        <v>17</v>
+      <c r="J84" s="9">
+        <v>-298100</v>
       </c>
       <c r="K84" s="9">
-        <v>-298100</v>
+        <v>-384457</v>
       </c>
       <c r="L84" s="9">
-        <v>-384457</v>
+        <v>-347823</v>
       </c>
       <c r="M84" s="9">
-        <v>-347823</v>
+        <v>-591350</v>
       </c>
       <c r="N84" s="9">
-        <v>-591350</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-533905</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
-        <v>-1485398</v>
+        <v>-1929366</v>
       </c>
       <c r="F85" s="15">
-        <v>-1929366</v>
+        <v>-1740002</v>
       </c>
       <c r="G85" s="15">
-        <v>-1740002</v>
+        <v>-1751004</v>
       </c>
       <c r="H85" s="15">
-        <v>-1751004</v>
+        <v>-2950061</v>
       </c>
       <c r="I85" s="15">
-        <v>-2950061</v>
+        <v>-3033101</v>
       </c>
       <c r="J85" s="15">
-        <v>-3033101</v>
+        <v>-3449223</v>
       </c>
       <c r="K85" s="15">
-        <v>-3449223</v>
+        <v>-3508628</v>
       </c>
       <c r="L85" s="15">
-        <v>-3508628</v>
+        <v>-3954377</v>
       </c>
       <c r="M85" s="15">
-        <v>-3954377</v>
+        <v>-5703091</v>
       </c>
       <c r="N85" s="15">
-        <v>-5703091</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5490754</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3374,7 +3374,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3389,7 +3389,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3404,7 +3404,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>49</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3456,7 +3456,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>15</v>
       </c>
@@ -3479,23 +3479,23 @@
       <c r="I91" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J91" s="9" t="s">
-        <v>17</v>
+      <c r="J91" s="9">
+        <v>-9</v>
       </c>
       <c r="K91" s="9">
-        <v>-9</v>
+        <v>10108</v>
       </c>
       <c r="L91" s="9">
-        <v>10108</v>
+        <v>10228</v>
       </c>
       <c r="M91" s="9">
-        <v>10228</v>
+        <v>-102646</v>
       </c>
       <c r="N91" s="9">
-        <v>-102646</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39028</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>19</v>
       </c>
@@ -3504,23 +3504,23 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>-140</v>
+        <v>-1306</v>
       </c>
       <c r="F92" s="11">
-        <v>-1306</v>
+        <v>-6419</v>
       </c>
       <c r="G92" s="11">
-        <v>-6419</v>
+        <v>5585</v>
       </c>
       <c r="H92" s="11">
-        <v>5585</v>
+        <v>-2313</v>
       </c>
       <c r="I92" s="11">
-        <v>-2313</v>
-      </c>
-      <c r="J92" s="11">
         <v>-433</v>
       </c>
+      <c r="J92" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K92" s="11" t="s">
         <v>17</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>22</v>
       </c>
@@ -3543,23 +3543,23 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
-        <v>39533</v>
+        <v>90501</v>
       </c>
       <c r="F93" s="9">
-        <v>90501</v>
+        <v>38568</v>
       </c>
       <c r="G93" s="9">
-        <v>38568</v>
+        <v>33273</v>
       </c>
       <c r="H93" s="9">
-        <v>33273</v>
+        <v>46969</v>
       </c>
       <c r="I93" s="9">
-        <v>46969</v>
-      </c>
-      <c r="J93" s="9">
         <v>143123</v>
       </c>
+      <c r="J93" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K93" s="9" t="s">
         <v>17</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>24</v>
       </c>
@@ -3582,37 +3582,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>329187</v>
+        <v>342401</v>
       </c>
       <c r="F94" s="11">
-        <v>342401</v>
+        <v>571641</v>
       </c>
       <c r="G94" s="11">
-        <v>571641</v>
+        <v>541197</v>
       </c>
       <c r="H94" s="11">
-        <v>541197</v>
+        <v>617860</v>
       </c>
       <c r="I94" s="11">
-        <v>617860</v>
+        <v>727886</v>
       </c>
       <c r="J94" s="11">
-        <v>727886</v>
+        <v>692243</v>
       </c>
       <c r="K94" s="11">
-        <v>692243</v>
+        <v>791719</v>
       </c>
       <c r="L94" s="11">
-        <v>791719</v>
+        <v>1006634</v>
       </c>
       <c r="M94" s="11">
-        <v>1006634</v>
+        <v>968885</v>
       </c>
       <c r="N94" s="11">
-        <v>968885</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>946672</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>27</v>
       </c>
@@ -3621,37 +3621,37 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>2089925</v>
+        <v>2450228</v>
       </c>
       <c r="F95" s="9">
-        <v>2450228</v>
+        <v>2199304</v>
       </c>
       <c r="G95" s="9">
-        <v>2199304</v>
+        <v>2148863</v>
       </c>
       <c r="H95" s="9">
-        <v>2148863</v>
+        <v>3290245</v>
       </c>
       <c r="I95" s="9">
-        <v>3290245</v>
+        <v>3729105</v>
       </c>
       <c r="J95" s="9">
-        <v>3729105</v>
+        <v>3940660</v>
       </c>
       <c r="K95" s="9">
-        <v>3940660</v>
+        <v>3744557</v>
       </c>
       <c r="L95" s="9">
-        <v>3744557</v>
+        <v>6472640</v>
       </c>
       <c r="M95" s="9">
-        <v>6472640</v>
+        <v>9056062</v>
       </c>
       <c r="N95" s="9">
-        <v>9056062</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8495585</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>28</v>
       </c>
@@ -3665,8 +3665,8 @@
       <c r="F96" s="11">
         <v>0</v>
       </c>
-      <c r="G96" s="11">
-        <v>0</v>
+      <c r="G96" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>17</v>
@@ -3690,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>35</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="H97" s="9">
         <v>0</v>
       </c>
-      <c r="I97" s="9">
-        <v>0</v>
+      <c r="I97" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>17</v>
@@ -3729,7 +3729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>30</v>
       </c>
@@ -3752,11 +3752,11 @@
       <c r="I98" s="11">
         <v>0</v>
       </c>
-      <c r="J98" s="11">
-        <v>0</v>
-      </c>
-      <c r="K98" s="11" t="s">
-        <v>17</v>
+      <c r="J98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
       </c>
       <c r="L98" s="11">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>31</v>
       </c>
@@ -3791,57 +3791,57 @@
       <c r="I99" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>17</v>
+      <c r="J99" s="9">
+        <v>126486</v>
       </c>
       <c r="K99" s="9">
-        <v>126486</v>
+        <v>101685</v>
       </c>
       <c r="L99" s="9">
-        <v>101685</v>
+        <v>95387</v>
       </c>
       <c r="M99" s="9">
-        <v>95387</v>
+        <v>491440</v>
       </c>
       <c r="N99" s="9">
-        <v>491440</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>251291</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15">
-        <v>2458505</v>
+        <v>2881824</v>
       </c>
       <c r="F100" s="15">
-        <v>2881824</v>
+        <v>2803094</v>
       </c>
       <c r="G100" s="15">
-        <v>2803094</v>
+        <v>2728918</v>
       </c>
       <c r="H100" s="15">
-        <v>2728918</v>
+        <v>3952761</v>
       </c>
       <c r="I100" s="15">
-        <v>3952761</v>
+        <v>4599681</v>
       </c>
       <c r="J100" s="15">
-        <v>4599681</v>
+        <v>4759380</v>
       </c>
       <c r="K100" s="15">
-        <v>4759380</v>
+        <v>4648069</v>
       </c>
       <c r="L100" s="15">
-        <v>4648069</v>
+        <v>7584889</v>
       </c>
       <c r="M100" s="15">
-        <v>7584889</v>
+        <v>10413741</v>
       </c>
       <c r="N100" s="15">
-        <v>10413741</v>
+        <v>9732576</v>
       </c>
     </row>
   </sheetData>
